--- a/School/GradesSpring22.xlsx
+++ b/School/GradesSpring22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\10\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FDCA03-870E-42C6-9CDB-90A0E89EF62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E052F0A0-742C-491A-8767-4999BDBEC83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{F238DB66-5457-4E49-9B22-EFF273AE8676}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F238DB66-5457-4E49-9B22-EFF273AE8676}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluids" sheetId="4" r:id="rId1"/>
@@ -182,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +225,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -378,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,6 +437,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A96FC8D-7982-4DB7-8374-6B8CB9630C07}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,7 +819,7 @@
       </c>
       <c r="H4" s="11">
         <f>(B25*0.1)+(C25*0.3)+(D25*0.05)+(E25*0.35)+(F25*0.2)</f>
-        <v>89.079499999999996</v>
+        <v>91.079499999999996</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -968,7 +975,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1096,11 +1103,11 @@
         <v>19</v>
       </c>
       <c r="B25" s="4">
-        <f>AVERAGE(B5:B24)</f>
+        <f t="shared" ref="B25:F25" si="0">AVERAGE(B5:B24)</f>
         <v>100</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" ref="C25:F25" si="0">AVERAGE(C5:C24)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D25" s="4">
@@ -1113,7 +1120,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="0"/>
-        <v>80.646000000000001</v>
+        <v>90.646000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +1137,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1210,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="11">
-        <f ca="1">(C14*0.4)+(E14*0.25)+(G14*0.25)+(I14*0.1)</f>
+        <f>(C14*0.4)+(E14*0.25)+(G14*0.25)+(I14*0.1)</f>
         <v>82.830882352941174</v>
       </c>
     </row>
@@ -1242,6 +1249,7 @@
       <c r="I5" s="2">
         <v>100</v>
       </c>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -1368,7 +1376,7 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F5:F11)</f>
         <v>185</v>
       </c>
       <c r="G12" s="9"/>
@@ -1394,7 +1402,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9">
-        <f ca="1">SUM(G5:G14)</f>
+        <f>SUM(G5:G12)</f>
         <v>200</v>
       </c>
       <c r="H13" s="9"/>
@@ -1419,7 +1427,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
-        <f t="shared" ca="1" si="1"/>
+        <f>(F12/G13)*100</f>
         <v>92.5</v>
       </c>
       <c r="H14" s="4"/>
@@ -2157,7 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BF8DE8-1FDD-49A7-A6A5-67C649C46153}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/School/GradesSpring22.xlsx
+++ b/School/GradesSpring22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\10\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E052F0A0-742C-491A-8767-4999BDBEC83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D5FCB4-EB5E-44E5-9C41-FAA23537F0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F238DB66-5457-4E49-9B22-EFF273AE8676}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>HW</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>~76=A</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -422,6 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -437,7 +441,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A96FC8D-7982-4DB7-8374-6B8CB9630C07}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -767,38 +770,44 @@
     <col min="7" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
@@ -821,8 +830,14 @@
         <f>(B25*0.1)+(C25*0.3)+(D25*0.05)+(E25*0.35)+(F25*0.2)</f>
         <v>91.079499999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -841,8 +856,14 @@
       <c r="F5" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -859,8 +880,14 @@
       <c r="F6" s="2">
         <v>86.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>35</v>
+      </c>
+      <c r="L6">
+        <v>27.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -875,8 +902,14 @@
       <c r="F7" s="2">
         <v>86.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -891,8 +924,19 @@
       <c r="F8" s="2">
         <v>66.66</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <f>SUM(K3:K7)</f>
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <f>SUM(L3:L7)</f>
+        <v>90.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -908,7 +952,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -922,7 +966,7 @@
         <v>93.3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -936,7 +980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -950,7 +994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -964,7 +1008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -978,7 +1022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -990,7 +1034,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1149,44 +1193,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="19" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
@@ -1249,7 +1293,7 @@
       <c r="I5" s="2">
         <v>100</v>
       </c>
-      <c r="K5" s="24"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -1450,7 +1494,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1463,36 +1507,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
@@ -1524,7 +1568,7 @@
       </c>
       <c r="K3" s="11">
         <f>(K16/K17)*100</f>
-        <v>52.903225806451616</v>
+        <v>54.516129032258064</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1768,7 +1812,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1787,7 +1831,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9">
         <f t="shared" ref="E16:I16" si="0">SUM(E4:E15)</f>
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9">
@@ -1804,7 +1848,7 @@
       </c>
       <c r="K16" s="4">
         <f>SUM(C16:I16)</f>
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1852,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2B3C88-EFEE-484D-891B-26C04749A760}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1862,41 +1906,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="11">
         <f>(B23*0.1)+(C23*0.1)+(D23*0.6)+(E23*0.2)</f>
-        <v>67.261388888888888</v>
+        <v>69.039166666666659</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1994,7 +2038,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2103,7 +2147,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2114,7 +2158,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2137,11 +2181,11 @@
       </c>
       <c r="B23" s="4">
         <f t="shared" ref="B23:D23" si="0">AVERAGE(B5:B22)</f>
-        <v>82.61388888888888</v>
+        <v>93.724999999999994</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -2166,7 +2210,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2175,28 +2219,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="16" t="s">
@@ -2216,7 +2260,7 @@
       </c>
       <c r="G3" s="11">
         <f>(0.1*B8)+(0.3*C8)+(0.3*D8)+(0.3*E8)</f>
-        <v>66.974999999999994</v>
+        <v>89.774999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -2233,7 +2277,7 @@
         <v>93</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -2294,7 +2338,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/School/GradesSpring22.xlsx
+++ b/School/GradesSpring22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\10\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D5FCB4-EB5E-44E5-9C41-FAA23537F0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6CC7BE-5F47-4E48-8041-836490538117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F238DB66-5457-4E49-9B22-EFF273AE8676}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{F238DB66-5457-4E49-9B22-EFF273AE8676}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluids" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>HW</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,6 +429,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -755,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A96FC8D-7982-4DB7-8374-6B8CB9630C07}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -770,44 +774,55 @@
     <col min="7" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="K3">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="L3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="M3">
+        <f>L3/K3</f>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f>M3*0.3</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
@@ -828,21 +843,29 @@
       </c>
       <c r="H4" s="11">
         <f>(B25*0.1)+(C25*0.3)+(D25*0.05)+(E25*0.35)+(F25*0.2)</f>
-        <v>91.079499999999996</v>
+        <v>94.529499999999985</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="L4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M7" si="0">L4/K4</f>
+        <v>0.91818181818181821</v>
+      </c>
+      <c r="N4">
+        <f>M4*0.2</f>
+        <v>0.18363636363636365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2">
         <v>100</v>
@@ -857,13 +880,21 @@
         <v>90</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f>M5*0.05</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -881,13 +912,22 @@
         <v>86.6</v>
       </c>
       <c r="K6">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="L6">
-        <v>27.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <f>119.5+25.5</f>
+        <v>145</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="N6">
+        <f>M6*0.35</f>
+        <v>0.33833333333333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -903,13 +943,21 @@
         <v>86.6</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>9.5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="N7">
+        <f>M7*0.1</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -927,16 +975,12 @@
       <c r="J8" t="s">
         <v>34</v>
       </c>
-      <c r="K8">
-        <f>SUM(K3:K7)</f>
-        <v>100</v>
-      </c>
-      <c r="L8">
-        <f>SUM(L3:L7)</f>
-        <v>90.93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <f>SUM(N3:N7)*100</f>
+        <v>96.696969696969703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -946,13 +990,13 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2">
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -966,7 +1010,7 @@
         <v>93.3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -980,7 +1024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -994,7 +1038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1008,7 +1052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1019,10 +1063,10 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1034,7 +1078,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1147,24 +1191,24 @@
         <v>19</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" ref="B25:F25" si="0">AVERAGE(B5:B24)</f>
-        <v>100</v>
+        <f t="shared" ref="B25:F25" si="1">AVERAGE(B5:B24)</f>
+        <v>95</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>79.85799999999999</v>
+        <f t="shared" si="1"/>
+        <v>96.85799999999999</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="0"/>
-        <v>90.646000000000001</v>
+        <f t="shared" si="1"/>
+        <v>80.646000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1193,44 +1237,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
@@ -1494,7 +1538,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1507,36 +1551,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="20" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
@@ -1569,6 +1613,9 @@
       <c r="K3" s="11">
         <f>(K16/K17)*100</f>
         <v>54.516129032258064</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1896,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2B3C88-EFEE-484D-891B-26C04749A760}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1906,41 +1953,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="11">
         <f>(B23*0.1)+(C23*0.1)+(D23*0.6)+(E23*0.2)</f>
-        <v>69.039166666666659</v>
+        <v>80.039166666666659</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1971,7 +2018,7 @@
         <v>87</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2193,7 +2240,7 @@
       </c>
       <c r="E23" s="4">
         <f>AVERAGE(E5:E22)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2257,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2219,28 +2266,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="16" t="s">
@@ -2297,6 +2344,9 @@
         <v>91</v>
       </c>
       <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3">

--- a/School/GradesSpring22.xlsx
+++ b/School/GradesSpring22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\10\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6CC7BE-5F47-4E48-8041-836490538117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DBE1D6-61B7-452F-A8A7-CE4F5B561C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{F238DB66-5457-4E49-9B22-EFF273AE8676}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{F238DB66-5457-4E49-9B22-EFF273AE8676}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluids" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>HW</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>~76=A</t>
-  </si>
-  <si>
-    <t>total</t>
   </si>
   <si>
     <t>Done</t>
@@ -390,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,6 +442,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A96FC8D-7982-4DB7-8374-6B8CB9630C07}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,7 +772,7 @@
     <col min="7" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -788,7 +786,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -797,32 +795,18 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
-      <c r="K3">
-        <v>57</v>
-      </c>
-      <c r="L3">
-        <v>57</v>
-      </c>
-      <c r="M3">
-        <f>L3/K3</f>
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <f>M3*0.3</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
@@ -843,24 +827,10 @@
       </c>
       <c r="H4" s="11">
         <f>(B25*0.1)+(C25*0.3)+(D25*0.05)+(E25*0.35)+(F25*0.2)</f>
-        <v>94.529499999999985</v>
-      </c>
-      <c r="K4">
-        <v>220</v>
-      </c>
-      <c r="L4">
-        <v>202</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M7" si="0">L4/K4</f>
-        <v>0.91818181818181821</v>
-      </c>
-      <c r="N4">
-        <f>M4*0.2</f>
-        <v>0.18363636363636365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>96.329499999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -879,22 +849,8 @@
       <c r="F5" s="2">
         <v>90</v>
       </c>
-      <c r="K5">
-        <v>24</v>
-      </c>
-      <c r="L5">
-        <v>24</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <f>M5*0.05</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -911,23 +867,8 @@
       <c r="F6" s="2">
         <v>86.6</v>
       </c>
-      <c r="K6">
-        <v>150</v>
-      </c>
-      <c r="L6">
-        <f>119.5+25.5</f>
-        <v>145</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="N6">
-        <f>M6*0.35</f>
-        <v>0.33833333333333332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -942,22 +883,8 @@
       <c r="F7" s="2">
         <v>86.6</v>
       </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>9.5</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="N7">
-        <f>M7*0.1</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -972,15 +899,8 @@
       <c r="F8" s="2">
         <v>66.66</v>
       </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8">
-        <f>SUM(N3:N7)*100</f>
-        <v>96.696969696969703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -996,7 +916,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1010,7 +930,7 @@
         <v>93.3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1024,7 +944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1038,7 +958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1052,7 +972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1063,10 +983,10 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1078,7 +998,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1191,24 +1111,24 @@
         <v>19</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" ref="B25:F25" si="1">AVERAGE(B5:B24)</f>
+        <f t="shared" ref="B25:F25" si="0">AVERAGE(B5:B24)</f>
         <v>95</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>96.85799999999999</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="1"/>
-        <v>80.646000000000001</v>
+        <f t="shared" si="0"/>
+        <v>89.646000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1222,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8175E5-45E1-47A5-B3A4-BCF18AC09414}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,7 +1156,7 @@
     <col min="10" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
@@ -1248,7 +1168,7 @@
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -1263,7 +1183,7 @@
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1275,8 +1195,11 @@
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1306,10 +1229,10 @@
       </c>
       <c r="K4" s="11">
         <f>(C14*0.4)+(E14*0.25)+(G14*0.25)+(I14*0.1)</f>
-        <v>82.830882352941174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>95.588235294117652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1326,7 +1249,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2">
         <v>100</v>
@@ -1339,7 +1262,7 @@
       </c>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1364,7 +1287,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1381,7 +1304,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1398,7 +1321,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1415,12 +1338,12 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2">
         <v>100</v>
@@ -1432,16 +1355,12 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1449,13 +1368,13 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="9">
         <f>SUM(B5:B11)</f>
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9">
@@ -1465,7 +1384,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9">
         <f>SUM(F5:F11)</f>
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9">
@@ -1474,7 +1393,7 @@
       </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -1499,14 +1418,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
         <f>(B12/C13)*100</f>
-        <v>61.764705882352942</v>
+        <v>86.470588235294116</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
@@ -1516,7 +1435,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <f>(F12/G13)*100</f>
-        <v>92.5</v>
+        <v>104</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4">
@@ -1537,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91DE246-8E83-4B32-BBA4-DE632555770A}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -1612,10 +1531,10 @@
       </c>
       <c r="K3" s="11">
         <f>(K16/K17)*100</f>
-        <v>54.516129032258064</v>
+        <v>99.670329670329664</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1652,10 +1571,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2">
         <v>15</v>
@@ -1692,7 +1611,7 @@
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H6" s="2">
         <v>10</v>
@@ -1873,7 +1792,7 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9">
         <f>SUM(C4:C15)</f>
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
@@ -1883,7 +1802,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9">
@@ -1895,7 +1814,7 @@
       </c>
       <c r="K16" s="4">
         <f>SUM(C16:I16)</f>
-        <v>507</v>
+        <v>907</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1904,7 +1823,7 @@
       </c>
       <c r="B17" s="9">
         <f>SUM(B4:B15)</f>
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9">
@@ -1927,7 +1846,7 @@
       </c>
       <c r="K17" s="4">
         <f>SUM(B17:I17)</f>
-        <v>930</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -1941,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2B3C88-EFEE-484D-891B-26C04749A760}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1952,7 +1871,7 @@
     <col min="6" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +1885,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -1975,8 +1894,11 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -1987,10 +1909,10 @@
       </c>
       <c r="G3" s="11">
         <f>(B23*0.1)+(C23*0.1)+(D23*0.6)+(E23*0.2)</f>
-        <v>80.039166666666659</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>88.594722222222231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2018,10 +1940,10 @@
         <v>87</v>
       </c>
       <c r="E5" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -2036,7 +1958,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2051,7 +1973,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -2064,7 +1986,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -2077,7 +1999,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -2090,7 +2012,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -2101,7 +2023,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -2112,7 +2034,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2123,7 +2045,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2134,7 +2056,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2145,7 +2067,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2216,7 +2138,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2228,7 +2150,7 @@
       </c>
       <c r="B23" s="4">
         <f t="shared" ref="B23:D23" si="0">AVERAGE(B5:B22)</f>
-        <v>93.724999999999994</v>
+        <v>99.280555555555551</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
@@ -2240,7 +2162,7 @@
       </c>
       <c r="E23" s="4">
         <f>AVERAGE(E5:E22)</f>
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2254,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BF8DE8-1FDD-49A7-A6A5-67C649C46153}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2265,7 +2187,7 @@
     <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
@@ -2279,7 +2201,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -2288,8 +2210,11 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2235,7 @@
         <v>89.774999999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2330,7 +2255,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2345,10 +2270,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2359,7 +2284,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2370,7 +2295,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
